--- a/Excel/res/services/CMD/ExecCMD/plistUnpack/plistUnpack.xlsx
+++ b/Excel/res/services/CMD/ExecCMD/plistUnpack/plistUnpack.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Files/develop/GitHub/PY_Service/Excel/res/services/CMD/ToolsCMD/plistUnpack/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Files/develop/GitHub/PY_Service/Excel/res/services/CMD/ExecCMD/plistUnpack/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AB122A-D330-C448-BC55-98CFF6C5F9E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35262DF-F3FA-5641-983E-7F88557410D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="45820" windowHeight="28300" xr2:uid="{3400439D-6956-7444-B596-8DA8A64B58D7}"/>
   </bookViews>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>全局参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,10 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sPublicType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Global</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -218,10 +214,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sProjectFolderPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>工程路径，固定存在的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,10 +226,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ToolsCMD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>执行 tools</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -246,36 +234,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sToolName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>脚本名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lParameterList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s大图的路径，不用加后缀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>资源路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sResFolderPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{__folder__}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>plistUnpack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>{</t>
+      <t>{r</t>
     </r>
     <r>
       <rPr>
@@ -283,8 +259,9 @@
         <sz val="12"/>
         <color rgb="FFC00000"/>
         <rFont val="等线 (正文)"/>
+        <charset val="134"/>
       </rPr>
-      <t>sResFolderPath</t>
+      <t>esFolderPath</t>
     </r>
     <r>
       <rPr>
@@ -300,7 +277,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>plistUnpack</t>
+    <t>&lt;s&gt;projectFolderPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;publicType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;resFolderPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;toolName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;l&gt;parameterList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExecCMD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMDInProject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,6 +374,7 @@
       <sz val="12"/>
       <color rgb="FFC00000"/>
       <name val="等线 (正文)"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -378,7 +384,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,8 +463,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -540,13 +552,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -595,6 +631,9 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -619,6 +658,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -628,8 +670,14 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -945,7 +993,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DCF3CD-B534-DA45-B2FF-D46346E2E15A}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -954,38 +1002,38 @@
     <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="24.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="9"/>
-      <c r="B1" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="13"/>
@@ -993,12 +1041,12 @@
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="19"/>
+        <v>16</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="20"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="14"/>
@@ -1006,92 +1054,101 @@
         <v>2</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="19"/>
+        <v>17</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="20"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="14"/>
       <c r="B6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="19"/>
+      <c r="D6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="20"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="16"/>
+      <c r="B9" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1"/>
+      <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1"/>
-      <c r="B9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="C10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="27"/>
-    </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+      <c r="E10" s="25"/>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+      <c r="B11" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" spans="1:5" ht="18" customHeight="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="B10:B11"/>
+  <mergeCells count="14">
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="B11:B12"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -1100,9 +1157,10 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="C8:E8"/>
-    <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
-    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B9:E9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
